--- a/Entregaveis/1.RepositorioSemantico/Profissional/ConceptMapBRCBO.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/ConceptMapBRCBO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olusegun\Documents\GitHub\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Profissional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67253480-A481-D544-A12A-D7E464068D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="23040" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="2480" yWindow="760" windowWidth="23040" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBO x ISCO" sheetId="4" r:id="rId1"/>
@@ -20,17 +21,28 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="381">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -1130,12 +1142,6 @@
     <t>Enfermeiro</t>
   </si>
   <si>
-    <t>BRCBO- http://www.saude.gov.br/fhir/r4/CodeSystem/BRCBO x urn:oid:2.16.840.1.113883.2.9.6.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> urn:oid:2.16.840.1.113883.2.9.6.2.7 x BRCBO- http://www.saude.gov.br/fhir/r4/CodeSystem/BRCBO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Profissionais de Saúde </t>
   </si>
   <si>
@@ -1152,13 +1158,40 @@
   </si>
   <si>
     <t>Nutritionists</t>
+  </si>
+  <si>
+    <t>ILO</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>ISCO</t>
+  </si>
+  <si>
+    <t>ORGANIZATION SOURCE</t>
+  </si>
+  <si>
+    <t>ORGANIZATION TARGET</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SOURCE TARGET</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORGANIZATION SOURCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1252,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1381,7 +1422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1485,10 +1526,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1504,7 +1557,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Opções"/>
@@ -1517,17 +1570,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="brestadodoeventoxeventstatus"/>
-      <sheetName val="eventstatusxbrestadoevento"/>
       <sheetName val="Opções"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1795,51 +1844,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="38" style="16" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="16"/>
-    <col min="7" max="7" width="31.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="16"/>
+    <col min="7" max="7" width="31.83203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="16"/>
+    <col min="9" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+        <v>380</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>378</v>
+      </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+        <v>377</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>374</v>
+      </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>291</v>
       </c>
@@ -1879,7 +1940,7 @@
         <v>325</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>319</v>
@@ -1891,7 +1952,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>131210</v>
       </c>
@@ -1905,7 +1966,7 @@
         <v>325</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>319</v>
@@ -1917,7 +1978,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>131220</v>
       </c>
@@ -1935,7 +1996,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>131225</v>
       </c>
@@ -1953,7 +2014,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>142340</v>
       </c>
@@ -1971,7 +2032,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>201115</v>
       </c>
@@ -1989,7 +2050,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>203005</v>
       </c>
@@ -2007,7 +2068,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>203015</v>
       </c>
@@ -2025,7 +2086,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>203020</v>
       </c>
@@ -2041,7 +2102,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>203320</v>
       </c>
@@ -2055,7 +2116,7 @@
         <v>325</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>319</v>
@@ -2067,7 +2128,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>213150</v>
       </c>
@@ -2085,7 +2146,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>213155</v>
       </c>
@@ -2103,7 +2164,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>213165</v>
       </c>
@@ -2121,7 +2182,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>213170</v>
       </c>
@@ -2139,7 +2200,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>213205</v>
       </c>
@@ -2157,7 +2218,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>213210</v>
       </c>
@@ -2175,7 +2236,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>214915</v>
       </c>
@@ -2193,7 +2254,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>348</v>
       </c>
@@ -2219,7 +2280,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>221105</v>
       </c>
@@ -2237,7 +2298,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>221205</v>
       </c>
@@ -2255,7 +2316,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>222205</v>
       </c>
@@ -2273,7 +2334,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>223119</v>
       </c>
@@ -2287,7 +2348,7 @@
         <v>326</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>319</v>
@@ -2297,7 +2358,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>223150</v>
       </c>
@@ -2311,7 +2372,7 @@
         <v>326</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>319</v>
@@ -2321,7 +2382,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
@@ -2335,7 +2396,7 @@
         <v>326</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>319</v>
@@ -2345,7 +2406,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2420,7 @@
         <v>326</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>319</v>
@@ -2369,7 +2430,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2444,7 @@
         <v>326</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>319</v>
@@ -2393,7 +2454,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
@@ -2407,7 +2468,7 @@
         <v>326</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>319</v>
@@ -2417,7 +2478,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
@@ -2431,7 +2492,7 @@
         <v>326</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>319</v>
@@ -2441,7 +2502,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>223204</v>
       </c>
@@ -2465,7 +2526,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>349</v>
       </c>
@@ -2491,7 +2552,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>223212</v>
       </c>
@@ -2517,7 +2578,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>223216</v>
       </c>
@@ -2543,7 +2604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>223220</v>
       </c>
@@ -2569,7 +2630,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>223224</v>
       </c>
@@ -2595,7 +2656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>223228</v>
       </c>
@@ -2621,7 +2682,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>223232</v>
       </c>
@@ -2647,7 +2708,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>223236</v>
       </c>
@@ -2673,7 +2734,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>223240</v>
       </c>
@@ -2699,7 +2760,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>223244</v>
       </c>
@@ -2725,7 +2786,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>223248</v>
       </c>
@@ -2751,7 +2812,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>223252</v>
       </c>
@@ -2777,7 +2838,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>223256</v>
       </c>
@@ -2803,7 +2864,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>223260</v>
       </c>
@@ -2829,7 +2890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>223264</v>
       </c>
@@ -2855,7 +2916,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>223268</v>
       </c>
@@ -2881,7 +2942,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>223272</v>
       </c>
@@ -2907,7 +2968,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>223276</v>
       </c>
@@ -2933,7 +2994,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>223280</v>
       </c>
@@ -2959,7 +3020,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>223284</v>
       </c>
@@ -2985,7 +3046,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>223288</v>
       </c>
@@ -3011,7 +3072,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>223293</v>
       </c>
@@ -3037,7 +3098,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>223305</v>
       </c>
@@ -3063,7 +3124,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>223310</v>
       </c>
@@ -3083,7 +3144,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>350</v>
       </c>
@@ -3109,7 +3170,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>223415</v>
       </c>
@@ -3135,7 +3196,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>223420</v>
       </c>
@@ -3161,7 +3222,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>223425</v>
       </c>
@@ -3187,7 +3248,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>223430</v>
       </c>
@@ -3213,7 +3274,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>223435</v>
       </c>
@@ -3239,7 +3300,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>223440</v>
       </c>
@@ -3265,7 +3326,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>223445</v>
       </c>
@@ -3291,7 +3352,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>364</v>
       </c>
@@ -3305,7 +3366,7 @@
         <v>330</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>319</v>
@@ -3317,7 +3378,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>223510</v>
       </c>
@@ -3331,7 +3392,7 @@
         <v>330</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>319</v>
@@ -3341,7 +3402,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>223515</v>
       </c>
@@ -3355,7 +3416,7 @@
         <v>330</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>319</v>
@@ -3365,7 +3426,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>223520</v>
       </c>
@@ -3379,7 +3440,7 @@
         <v>330</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>319</v>
@@ -3389,7 +3450,7 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>223525</v>
       </c>
@@ -3403,7 +3464,7 @@
         <v>330</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>319</v>
@@ -3413,7 +3474,7 @@
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>223530</v>
       </c>
@@ -3427,7 +3488,7 @@
         <v>330</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>319</v>
@@ -3437,7 +3498,7 @@
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>223535</v>
       </c>
@@ -3451,7 +3512,7 @@
         <v>330</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>319</v>
@@ -3461,7 +3522,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>223540</v>
       </c>
@@ -3483,7 +3544,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>223545</v>
       </c>
@@ -3507,7 +3568,7 @@
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>223550</v>
       </c>
@@ -3521,7 +3582,7 @@
         <v>330</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>319</v>
@@ -3531,7 +3592,7 @@
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>223555</v>
       </c>
@@ -3545,7 +3606,7 @@
         <v>330</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>319</v>
@@ -3555,7 +3616,7 @@
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>223560</v>
       </c>
@@ -3569,7 +3630,7 @@
         <v>330</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>319</v>
@@ -3579,7 +3640,7 @@
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>223565</v>
       </c>
@@ -3593,7 +3654,7 @@
         <v>330</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>319</v>
@@ -3603,7 +3664,7 @@
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>223570</v>
       </c>
@@ -3621,7 +3682,7 @@
       </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>20</v>
       </c>
@@ -3635,7 +3696,7 @@
         <v>330</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>319</v>
@@ -3645,7 +3706,7 @@
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>352</v>
       </c>
@@ -3671,7 +3732,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>223625</v>
       </c>
@@ -3697,7 +3758,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>223630</v>
       </c>
@@ -3723,7 +3784,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>223635</v>
       </c>
@@ -3749,7 +3810,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>223640</v>
       </c>
@@ -3775,7 +3836,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>223645</v>
       </c>
@@ -3801,7 +3862,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>223650</v>
       </c>
@@ -3827,7 +3888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>223655</v>
       </c>
@@ -3853,7 +3914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>223660</v>
       </c>
@@ -3879,7 +3940,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>21</v>
       </c>
@@ -3901,7 +3962,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>223710</v>
       </c>
@@ -3927,7 +3988,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>223810</v>
       </c>
@@ -3951,7 +4012,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>223815</v>
       </c>
@@ -3975,7 +4036,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>223820</v>
       </c>
@@ -3995,7 +4056,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>223825</v>
       </c>
@@ -4019,7 +4080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>223830</v>
       </c>
@@ -4041,7 +4102,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>223835</v>
       </c>
@@ -4063,7 +4124,7 @@
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>223840</v>
       </c>
@@ -4087,7 +4148,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>223845</v>
       </c>
@@ -4111,7 +4172,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>223905</v>
       </c>
@@ -4135,7 +4196,7 @@
       </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>223910</v>
       </c>
@@ -4161,10 +4222,10 @@
         <v>322</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>224105</v>
       </c>
@@ -4180,7 +4241,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>224110</v>
       </c>
@@ -4196,7 +4257,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>224115</v>
       </c>
@@ -4212,7 +4273,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>224120</v>
       </c>
@@ -4228,7 +4289,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>224125</v>
       </c>
@@ -4244,7 +4305,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>224130</v>
       </c>
@@ -4260,7 +4321,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>26</v>
       </c>
@@ -4274,7 +4335,7 @@
         <v>325</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>319</v>
@@ -4286,7 +4347,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>225103</v>
       </c>
@@ -4300,7 +4361,7 @@
         <v>326</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>319</v>
@@ -4310,7 +4371,7 @@
       </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>225105</v>
       </c>
@@ -4324,7 +4385,7 @@
         <v>326</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>319</v>
@@ -4334,7 +4395,7 @@
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>225106</v>
       </c>
@@ -4348,7 +4409,7 @@
         <v>326</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>319</v>
@@ -4358,7 +4419,7 @@
       </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>225109</v>
       </c>
@@ -4372,7 +4433,7 @@
         <v>326</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>319</v>
@@ -4382,7 +4443,7 @@
       </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>225110</v>
       </c>
@@ -4396,7 +4457,7 @@
         <v>326</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>319</v>
@@ -4406,7 +4467,7 @@
       </c>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>225112</v>
       </c>
@@ -4420,7 +4481,7 @@
         <v>326</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>319</v>
@@ -4430,7 +4491,7 @@
       </c>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>225115</v>
       </c>
@@ -4444,7 +4505,7 @@
         <v>326</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>319</v>
@@ -4454,7 +4515,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>225118</v>
       </c>
@@ -4468,7 +4529,7 @@
         <v>326</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>319</v>
@@ -4478,7 +4539,7 @@
       </c>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>225120</v>
       </c>
@@ -4492,7 +4553,7 @@
         <v>326</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>319</v>
@@ -4502,7 +4563,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>225121</v>
       </c>
@@ -4516,7 +4577,7 @@
         <v>326</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>319</v>
@@ -4526,7 +4587,7 @@
       </c>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>225122</v>
       </c>
@@ -4540,7 +4601,7 @@
         <v>326</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>319</v>
@@ -4550,7 +4611,7 @@
       </c>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>225124</v>
       </c>
@@ -4564,7 +4625,7 @@
         <v>326</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>319</v>
@@ -4574,7 +4635,7 @@
       </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>225125</v>
       </c>
@@ -4588,7 +4649,7 @@
         <v>326</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>319</v>
@@ -4598,7 +4659,7 @@
       </c>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>225127</v>
       </c>
@@ -4612,7 +4673,7 @@
         <v>326</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>319</v>
@@ -4622,7 +4683,7 @@
       </c>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>225130</v>
       </c>
@@ -4636,7 +4697,7 @@
         <v>326</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>319</v>
@@ -4646,7 +4707,7 @@
       </c>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>225133</v>
       </c>
@@ -4660,7 +4721,7 @@
         <v>326</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>319</v>
@@ -4670,7 +4731,7 @@
       </c>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>225135</v>
       </c>
@@ -4684,7 +4745,7 @@
         <v>326</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>319</v>
@@ -4694,7 +4755,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>225136</v>
       </c>
@@ -4708,7 +4769,7 @@
         <v>326</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>319</v>
@@ -4718,7 +4779,7 @@
       </c>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>225139</v>
       </c>
@@ -4732,7 +4793,7 @@
         <v>326</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>319</v>
@@ -4742,7 +4803,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>225140</v>
       </c>
@@ -4756,7 +4817,7 @@
         <v>326</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>319</v>
@@ -4766,7 +4827,7 @@
       </c>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>225142</v>
       </c>
@@ -4780,7 +4841,7 @@
         <v>326</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>319</v>
@@ -4790,7 +4851,7 @@
       </c>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>225145</v>
       </c>
@@ -4804,7 +4865,7 @@
         <v>326</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>319</v>
@@ -4814,7 +4875,7 @@
       </c>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>225148</v>
       </c>
@@ -4828,7 +4889,7 @@
         <v>326</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>319</v>
@@ -4838,7 +4899,7 @@
       </c>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>225150</v>
       </c>
@@ -4852,7 +4913,7 @@
         <v>326</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>319</v>
@@ -4862,7 +4923,7 @@
       </c>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>225151</v>
       </c>
@@ -4876,7 +4937,7 @@
         <v>326</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>319</v>
@@ -4886,7 +4947,7 @@
       </c>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>225154</v>
       </c>
@@ -4900,7 +4961,7 @@
         <v>326</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>319</v>
@@ -4910,7 +4971,7 @@
       </c>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>225155</v>
       </c>
@@ -4924,7 +4985,7 @@
         <v>326</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>319</v>
@@ -4934,7 +4995,7 @@
       </c>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>225160</v>
       </c>
@@ -4948,7 +5009,7 @@
         <v>326</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>319</v>
@@ -4958,7 +5019,7 @@
       </c>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>225165</v>
       </c>
@@ -4972,7 +5033,7 @@
         <v>326</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>319</v>
@@ -4982,7 +5043,7 @@
       </c>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>225170</v>
       </c>
@@ -4996,7 +5057,7 @@
         <v>326</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>319</v>
@@ -5006,7 +5067,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>225175</v>
       </c>
@@ -5020,7 +5081,7 @@
         <v>326</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>319</v>
@@ -5030,7 +5091,7 @@
       </c>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>225180</v>
       </c>
@@ -5044,7 +5105,7 @@
         <v>326</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>319</v>
@@ -5054,7 +5115,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>225185</v>
       </c>
@@ -5068,7 +5129,7 @@
         <v>326</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>319</v>
@@ -5078,7 +5139,7 @@
       </c>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>225195</v>
       </c>
@@ -5092,7 +5153,7 @@
         <v>326</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>319</v>
@@ -5102,7 +5163,7 @@
       </c>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>225203</v>
       </c>
@@ -5116,7 +5177,7 @@
         <v>326</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>319</v>
@@ -5126,7 +5187,7 @@
       </c>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>225210</v>
       </c>
@@ -5140,7 +5201,7 @@
         <v>326</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>319</v>
@@ -5150,7 +5211,7 @@
       </c>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>225215</v>
       </c>
@@ -5164,7 +5225,7 @@
         <v>326</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>319</v>
@@ -5174,7 +5235,7 @@
       </c>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>225220</v>
       </c>
@@ -5188,7 +5249,7 @@
         <v>326</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>319</v>
@@ -5198,7 +5259,7 @@
       </c>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>225225</v>
       </c>
@@ -5212,7 +5273,7 @@
         <v>326</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>319</v>
@@ -5222,7 +5283,7 @@
       </c>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>225230</v>
       </c>
@@ -5236,7 +5297,7 @@
         <v>326</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>319</v>
@@ -5246,7 +5307,7 @@
       </c>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>225235</v>
       </c>
@@ -5260,7 +5321,7 @@
         <v>326</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>319</v>
@@ -5270,7 +5331,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>225245</v>
       </c>
@@ -5284,7 +5345,7 @@
         <v>326</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>319</v>
@@ -5294,7 +5355,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>225250</v>
       </c>
@@ -5316,7 +5377,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>225255</v>
       </c>
@@ -5332,7 +5393,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>225260</v>
       </c>
@@ -5348,7 +5409,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>354</v>
       </c>
@@ -5374,7 +5435,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>225270</v>
       </c>
@@ -5394,7 +5455,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>225275</v>
       </c>
@@ -5414,7 +5475,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>225280</v>
       </c>
@@ -5434,7 +5495,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>225285</v>
       </c>
@@ -5454,7 +5515,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>225290</v>
       </c>
@@ -5474,7 +5535,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
         <v>225295</v>
       </c>
@@ -5494,7 +5555,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>225305</v>
       </c>
@@ -5514,7 +5575,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>225310</v>
       </c>
@@ -5534,7 +5595,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>225315</v>
       </c>
@@ -5554,7 +5615,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>225320</v>
       </c>
@@ -5574,7 +5635,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>225325</v>
       </c>
@@ -5594,7 +5655,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>225330</v>
       </c>
@@ -5614,7 +5675,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>225335</v>
       </c>
@@ -5634,7 +5695,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>225340</v>
       </c>
@@ -5654,7 +5715,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>225345</v>
       </c>
@@ -5674,7 +5735,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>225350</v>
       </c>
@@ -5694,7 +5755,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>226105</v>
       </c>
@@ -5710,7 +5771,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>226110</v>
       </c>
@@ -5730,7 +5791,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>226305</v>
       </c>
@@ -5746,7 +5807,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>226310</v>
       </c>
@@ -5762,7 +5823,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>226315</v>
       </c>
@@ -5778,7 +5839,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>226320</v>
       </c>
@@ -5794,7 +5855,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>232120</v>
       </c>
@@ -5810,7 +5871,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>233125</v>
       </c>
@@ -5826,7 +5887,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>234410</v>
       </c>
@@ -5842,7 +5903,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>234415</v>
       </c>
@@ -5858,7 +5919,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>239205</v>
       </c>
@@ -5874,7 +5935,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>239210</v>
       </c>
@@ -5890,7 +5951,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>239215</v>
       </c>
@@ -5906,7 +5967,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>239220</v>
       </c>
@@ -5922,7 +5983,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>239225</v>
       </c>
@@ -5938,7 +5999,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>239415</v>
       </c>
@@ -5954,7 +6015,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>239425</v>
       </c>
@@ -5970,7 +6031,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>251505</v>
       </c>
@@ -5986,7 +6047,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>251510</v>
       </c>
@@ -6002,7 +6063,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>251515</v>
       </c>
@@ -6018,7 +6079,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>251520</v>
       </c>
@@ -6034,7 +6095,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>251525</v>
       </c>
@@ -6050,7 +6111,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>251530</v>
       </c>
@@ -6066,7 +6127,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>251535</v>
       </c>
@@ -6082,7 +6143,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>251540</v>
       </c>
@@ -6098,7 +6159,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>251545</v>
       </c>
@@ -6114,7 +6175,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>251550</v>
       </c>
@@ -6130,7 +6191,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>251555</v>
       </c>
@@ -6146,7 +6207,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>251605</v>
       </c>
@@ -6162,7 +6223,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>312210</v>
       </c>
@@ -6178,7 +6239,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>313505</v>
       </c>
@@ -6194,7 +6255,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>22</v>
       </c>
@@ -6210,7 +6271,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>23</v>
       </c>
@@ -6226,7 +6287,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>322105</v>
       </c>
@@ -6242,7 +6303,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>322115</v>
       </c>
@@ -6258,7 +6319,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>322120</v>
       </c>
@@ -6274,7 +6335,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>322125</v>
       </c>
@@ -6290,7 +6351,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>322135</v>
       </c>
@@ -6306,7 +6367,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>322205</v>
       </c>
@@ -6322,7 +6383,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>322210</v>
       </c>
@@ -6338,7 +6399,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>322215</v>
       </c>
@@ -6354,7 +6415,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>322220</v>
       </c>
@@ -6370,7 +6431,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>322225</v>
       </c>
@@ -6386,7 +6447,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>322230</v>
       </c>
@@ -6402,7 +6463,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>322235</v>
       </c>
@@ -6418,7 +6479,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>322240</v>
       </c>
@@ -6434,7 +6495,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>322245</v>
       </c>
@@ -6450,7 +6511,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>322250</v>
       </c>
@@ -6466,7 +6527,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>322305</v>
       </c>
@@ -6482,7 +6543,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>322405</v>
       </c>
@@ -6498,7 +6559,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>322410</v>
       </c>
@@ -6514,7 +6575,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>322415</v>
       </c>
@@ -6530,7 +6591,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>322420</v>
       </c>
@@ -6552,7 +6613,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>322425</v>
       </c>
@@ -6568,7 +6629,7 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>322430</v>
       </c>
@@ -6584,7 +6645,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>322505</v>
       </c>
@@ -6600,7 +6661,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>322605</v>
       </c>
@@ -6616,7 +6677,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>324105</v>
       </c>
@@ -6632,7 +6693,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>324110</v>
       </c>
@@ -6648,7 +6709,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>324115</v>
       </c>
@@ -6674,7 +6735,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>324120</v>
       </c>
@@ -6690,7 +6751,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>324125</v>
       </c>
@@ -6706,7 +6767,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>324205</v>
       </c>
@@ -6722,7 +6783,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>324210</v>
       </c>
@@ -6744,7 +6805,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>324215</v>
       </c>
@@ -6760,7 +6821,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>324220</v>
       </c>
@@ -6776,7 +6837,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>325105</v>
       </c>
@@ -6802,7 +6863,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>325110</v>
       </c>
@@ -6818,7 +6879,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>325115</v>
       </c>
@@ -6844,7 +6905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>325205</v>
       </c>
@@ -6860,7 +6921,7 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
     </row>
-    <row r="240" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>325210</v>
       </c>
@@ -6886,7 +6947,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>351605</v>
       </c>
@@ -6902,7 +6963,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
-    <row r="242" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>351610</v>
       </c>
@@ -6926,7 +6987,7 @@
       </c>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>352210</v>
       </c>
@@ -6942,7 +7003,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
     </row>
-    <row r="244" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>422205</v>
       </c>
@@ -6958,7 +7019,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>422210</v>
       </c>
@@ -6974,7 +7035,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>422215</v>
       </c>
@@ -6990,7 +7051,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>422220</v>
       </c>
@@ -7006,7 +7067,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>515105</v>
       </c>
@@ -7032,7 +7093,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>515110</v>
       </c>
@@ -7048,7 +7109,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>515115</v>
       </c>
@@ -7064,7 +7125,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>515120</v>
       </c>
@@ -7080,7 +7141,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>515125</v>
       </c>
@@ -7096,7 +7157,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>515130</v>
       </c>
@@ -7112,7 +7173,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>515135</v>
       </c>
@@ -7128,7 +7189,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>515140</v>
       </c>
@@ -7144,7 +7205,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>24</v>
       </c>
@@ -7160,7 +7221,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>515205</v>
       </c>
@@ -7176,7 +7237,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>515210</v>
       </c>
@@ -7192,7 +7253,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>515215</v>
       </c>
@@ -7208,7 +7269,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>515220</v>
       </c>
@@ -7224,7 +7285,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>515225</v>
       </c>
@@ -7240,7 +7301,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>25</v>
       </c>
@@ -7256,7 +7317,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>515305</v>
       </c>
@@ -7272,7 +7333,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>515310</v>
       </c>
@@ -7288,7 +7349,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>515315</v>
       </c>
@@ -7304,7 +7365,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>515325</v>
       </c>
@@ -7320,7 +7381,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10">
         <v>516220</v>
       </c>
@@ -7336,7 +7397,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7347,12 +7408,8 @@
       <c r="H268" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H268">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H268" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7361,13 +7418,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>'\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Equivalências!$A$1:$G$1</xm:f>
           </x14:formula1>
@@ -7380,19 +7437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7418,96 +7475,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="18"/>
-    <col min="7" max="7" width="32.109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="18"/>
+    <col min="1" max="1" width="17.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="18"/>
+    <col min="7" max="7" width="32.1640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="3"/>
@@ -7516,34 +7579,26 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="9">
-        <v>225125</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="9">
         <v>225170</v>
@@ -7554,25 +7609,27 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>2212</v>
+    <row r="8" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="34">
-        <v>225120</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>139</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C8" s="9">
+        <v>225170</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -7580,115 +7637,119 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
+        <v>2212</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
         <v>222</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C10" s="34">
         <v>223545</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>2221</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="34">
-        <v>223505</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="34">
-        <v>223545</v>
+        <v>223505</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>223</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>332</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>2222</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="34">
+        <v>223545</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
-        <v>2230</v>
-      </c>
-      <c r="B13" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>332</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <v>224</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>333</v>
+        <v>2230</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
-        <v>2240</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>333</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
-        <v>225</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="34">
-        <v>223305</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>78</v>
+        <v>2240</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
-        <v>2250</v>
-      </c>
-      <c r="B17" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>292</v>
       </c>
       <c r="C17" s="34">
@@ -7700,259 +7761,255 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
-        <v>226</v>
+        <v>2250</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>334</v>
+        <v>292</v>
+      </c>
+      <c r="C18" s="34">
+        <v>223305</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
+        <v>226</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>2261</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C20" s="34">
         <v>223208</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>2262</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C21" s="34">
         <v>223405</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>2263</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C22" s="34">
         <v>214940</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>2264</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C23" s="34">
         <v>223605</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>2265</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C24" s="34">
         <v>223710</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D24" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>2266</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="34">
-        <v>223810</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="C25" s="34">
-        <v>225265</v>
+        <v>223810</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="C26" s="34">
+        <v>225265</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
-        <v>32</v>
+        <v>2269</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
+        <v>32</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>321</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B29" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C29" s="34">
         <v>223405</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <v>3211</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B30" s="18" t="s">
         <v>299</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
-        <v>3212</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
+        <v>3212</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
         <v>3213</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C32" s="34">
         <v>223405</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <v>3214</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B33" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
         <v>322</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="C33" s="34">
-        <v>223505</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>3221</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>339</v>
       </c>
       <c r="C34" s="34">
         <v>223505</v>
@@ -7967,12 +8024,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C35" s="34">
         <v>223505</v>
@@ -7987,19 +8044,29 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
+        <v>3222</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="34">
+        <v>223505</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <v>323</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
-        <v>3230</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>340</v>
@@ -8007,151 +8074,158 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
-        <v>324</v>
+        <v>3230</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20">
-        <v>3240</v>
-      </c>
-      <c r="B39" s="21" t="s">
+    <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>324</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>341</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
-        <v>325</v>
+        <v>3240</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
-        <v>3251</v>
+        <v>325</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
+        <v>3253</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
         <v>3254</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C45" s="34">
         <v>225265</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="20">
+    <row r="46" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <v>3255</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>358</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20">
-        <v>3256</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
-        <v>3257</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>360</v>
+        <v>3256</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
-        <v>3258</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>361</v>
+        <v>3257</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22">
-        <v>3259</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>362</v>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>3258</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
+    <row r="50" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>3259</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L38 L4:L14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L39 L5:L15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H50" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8160,23 +8234,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\Olusegun\Documents\GitHub\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\[brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\Olusegun\Documents\GitHub\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\[brestadodoeventoxeventstatus_brestadodoeventoxeventstatus.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K17:K38 K4:K14</xm:sqref>
+          <xm:sqref>K18:K39 K5:K15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Equivalências!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G49</xm:sqref>
+          <xm:sqref>G5:G50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>'\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
+          <xm:sqref>G4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Entregaveis/1.RepositorioSemantico/Profissional/ConceptMapBRCBO.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/ConceptMapBRCBO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67253480-A481-D544-A12A-D7E464068D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D303E7-CC37-A14B-95AB-110F2CD0FC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="760" windowWidth="23040" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="760" windowWidth="23040" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBO x ISCO" sheetId="4" r:id="rId1"/>
@@ -1847,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7420,7 +7420,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
@@ -7478,7 +7478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8248,7 +8248,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G4</xm:sqref>
         </x14:dataValidation>
